--- a/data/trans_dic/P1401-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1401-Edad-trans_dic.xlsx
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001288105075201823</v>
+        <v>0.001293349889146305</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0006885033200820966</v>
+        <v>0.0006915460859597729</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -779,27 +779,27 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0118831560648624</v>
+        <v>0.01147308063714684</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.02112300301010659</v>
+        <v>0.02219802916546305</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.008676734353879511</v>
+        <v>0.01010389695271633</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.009807396151082495</v>
+        <v>0.009854923472948047</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.006249956324209706</v>
+        <v>0.006999162496249904</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.004260380699468172</v>
+        <v>0.004252721648852415</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.009327594118734401</v>
+        <v>0.01031411853715451</v>
       </c>
     </row>
     <row r="10">
@@ -829,7 +829,7 @@
         <v>0.01457026863476588</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.008325946096662156</v>
+        <v>0.00832594609666216</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.01102247597157194</v>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002777346109695831</v>
+        <v>0.002912710069748825</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -858,22 +858,22 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.006615820487732058</v>
+        <v>0.00622508647489173</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006666039549269284</v>
+        <v>0.006910817182035492</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003416866449174898</v>
+        <v>0.003440540070858898</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006211974567104071</v>
+        <v>0.006352329943718401</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.004026483399052283</v>
+        <v>0.004086371828583449</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.003101095110776406</v>
+        <v>0.002986755658404502</v>
       </c>
     </row>
     <row r="12">
@@ -884,31 +884,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01712264031904861</v>
+        <v>0.01686968930388896</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.007682794544880401</v>
+        <v>0.00772118510057684</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01429189287734374</v>
+        <v>0.01432849111186349</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02933797796111786</v>
+        <v>0.02689017267861786</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02637603012609011</v>
+        <v>0.02562670044055458</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01620942928685814</v>
+        <v>0.01604466826326759</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01832961237497068</v>
+        <v>0.01845754457181659</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01523014325627817</v>
+        <v>0.01461146674805436</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01184638486719077</v>
+        <v>0.01166455560733303</v>
       </c>
     </row>
     <row r="13">
@@ -938,7 +938,7 @@
         <v>0.02135268394608682</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.02593503699154306</v>
+        <v>0.02593503699154307</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.02042932303695425</v>
@@ -947,7 +947,7 @@
         <v>0.01561419857014525</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.02003112704286216</v>
+        <v>0.02003112704286217</v>
       </c>
     </row>
     <row r="14">
@@ -958,31 +958,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.003372417318321536</v>
+        <v>0.003310324970898699</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003724041474495979</v>
+        <v>0.003519855591302446</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006441280219565352</v>
+        <v>0.006636438092053478</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01981934368037171</v>
+        <v>0.01923327950922755</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01228825882496716</v>
+        <v>0.01190021795816975</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01761380963900036</v>
+        <v>0.01827560599557391</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01264415632931651</v>
+        <v>0.01270223997889979</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.00962586240431919</v>
+        <v>0.009581039189801665</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01381945062725562</v>
+        <v>0.01375440848334642</v>
       </c>
     </row>
     <row r="15">
@@ -993,31 +993,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01842673990741978</v>
+        <v>0.01929975254578236</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02168182616102467</v>
+        <v>0.02083042819418587</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02490220453543082</v>
+        <v>0.0252678128531325</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05223718029305212</v>
+        <v>0.05143074086134705</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03503210134108304</v>
+        <v>0.03457807135106381</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03603933713769324</v>
+        <v>0.03738406866759277</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03041972141487008</v>
+        <v>0.03039313706739724</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02413281245865727</v>
+        <v>0.02439969883963726</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02715292537130531</v>
+        <v>0.0269401353169364</v>
       </c>
     </row>
     <row r="16">
@@ -1067,31 +1067,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007339469518671816</v>
+        <v>0.007281262289368359</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004060444085319954</v>
+        <v>0.004069939820084469</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0227362566628295</v>
+        <v>0.02269941719114951</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02798882587227351</v>
+        <v>0.02847857072289845</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01529790703368649</v>
+        <v>0.0137537170381713</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02430896585918012</v>
+        <v>0.02430082451567325</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02026274349041384</v>
+        <v>0.02123660951078892</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01103311839154522</v>
+        <v>0.01126591788063817</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02572498636642866</v>
+        <v>0.0257526916563914</v>
       </c>
     </row>
     <row r="18">
@@ -1102,31 +1102,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03151570560466761</v>
+        <v>0.03355931272213956</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02331874177924367</v>
+        <v>0.02310976164881653</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05444324980073023</v>
+        <v>0.05240756203805512</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06841384982218944</v>
+        <v>0.06658968612803262</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04520093459961178</v>
+        <v>0.04642806425569113</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04574992107217691</v>
+        <v>0.04644672420356631</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04347744532320914</v>
+        <v>0.0443735337890319</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02897658949118926</v>
+        <v>0.02814148067161668</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04393305791102169</v>
+        <v>0.04415104690681711</v>
       </c>
     </row>
     <row r="19">
@@ -1156,7 +1156,7 @@
         <v>0.04911207585882206</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.04599362016684683</v>
+        <v>0.04599362016684684</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.03473932347929568</v>
@@ -1176,31 +1176,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01661601868337659</v>
+        <v>0.01895830416785441</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.005972000607907794</v>
+        <v>0.008455020655672109</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03007873981015461</v>
+        <v>0.02947857952738053</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0187715021110204</v>
+        <v>0.01757584597250448</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03016368315284322</v>
+        <v>0.0301328765335342</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03173551283337171</v>
+        <v>0.03435409930502056</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02284235257957734</v>
+        <v>0.02133042554024698</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0227210323787025</v>
+        <v>0.02190704812773589</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03556283218709776</v>
+        <v>0.03492152920196626</v>
       </c>
     </row>
     <row r="21">
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06907836552910682</v>
+        <v>0.06820684369980309</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03610115694624731</v>
+        <v>0.03850816741280513</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06326679638914566</v>
+        <v>0.0643381596360333</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05535941517436374</v>
+        <v>0.0553686612785809</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0764002670468024</v>
+        <v>0.07491049186850915</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06268458083668635</v>
+        <v>0.0634804812820669</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0535266854458606</v>
+        <v>0.05249163858686032</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05111905173252228</v>
+        <v>0.05055103097644589</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05728820114177752</v>
+        <v>0.0568065470321431</v>
       </c>
     </row>
     <row r="22">
@@ -1274,7 +1274,7 @@
         <v>0.04004397916750625</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.05275782200592874</v>
+        <v>0.05275782200592875</v>
       </c>
     </row>
     <row r="23">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01244111751455204</v>
+        <v>0.01242768073815231</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02568454712266907</v>
+        <v>0.02388184426047428</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04939232437238796</v>
+        <v>0.04785340215159881</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01369986792180271</v>
+        <v>0.01139626210637645</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01879630422028655</v>
+        <v>0.01847720353062123</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02957751487941712</v>
+        <v>0.02923855289952842</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01503855517911335</v>
+        <v>0.01544939485396661</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02547829128860481</v>
+        <v>0.02599659944573242</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04219196314121064</v>
+        <v>0.0415465926766538</v>
       </c>
     </row>
     <row r="24">
@@ -1320,31 +1320,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05794220636183119</v>
+        <v>0.05422183211953365</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07648588823099992</v>
+        <v>0.07541428820922597</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1006298567136999</v>
+        <v>0.09896834978928301</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04752804915553175</v>
+        <v>0.04670652094839165</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06690435554397675</v>
+        <v>0.06694602721260964</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05536464874138789</v>
+        <v>0.05593294331784076</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04211858503189893</v>
+        <v>0.04057619263129227</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06002327631900858</v>
+        <v>0.06214323574905788</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06757915263901325</v>
+        <v>0.06839651894809286</v>
       </c>
     </row>
     <row r="25">
@@ -1365,7 +1365,7 @@
         <v>0.008759891864754007</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.0211367975075312</v>
+        <v>0.02113679750753121</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.02014494967712189</v>
@@ -1383,7 +1383,7 @@
         <v>0.01453899265530997</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.02196403072294269</v>
+        <v>0.02196403072294268</v>
       </c>
     </row>
     <row r="26">
@@ -1394,31 +1394,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.008059799138195253</v>
+        <v>0.008098023121163835</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.005875129054632713</v>
+        <v>0.006012663502166194</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01672744122566788</v>
+        <v>0.01712862388300899</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01563507143042243</v>
+        <v>0.01555557253733681</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01552466136360415</v>
+        <v>0.0155609749644652</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01960948639670532</v>
+        <v>0.01940096895507384</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01301943790997223</v>
+        <v>0.01306309214784829</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01164178854685763</v>
+        <v>0.01181961781437155</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01888243783869211</v>
+        <v>0.01929137887073013</v>
       </c>
     </row>
     <row r="27">
@@ -1429,31 +1429,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01617597474595156</v>
+        <v>0.01564549599607374</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01213118422083618</v>
+        <v>0.01233062206713025</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02544391999231321</v>
+        <v>0.02591787712276243</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02557017915098592</v>
+        <v>0.02571390034372019</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02578182698676238</v>
+        <v>0.02547279040303148</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02718458507051721</v>
+        <v>0.02728888186621466</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01918661199189271</v>
+        <v>0.01932570415121194</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01754400291887724</v>
+        <v>0.01783899248062969</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02481949213045919</v>
+        <v>0.02519666334247721</v>
       </c>
     </row>
     <row r="28">
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="n">
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
@@ -1824,27 +1824,27 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8165</v>
+        <v>7883</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>10073</v>
+        <v>10586</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>4890</v>
+        <v>5694</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>4914</v>
+        <v>4938</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>8108</v>
+        <v>9080</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>4917</v>
+        <v>4908</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>9122</v>
+        <v>10087</v>
       </c>
     </row>
     <row r="12">
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1894</v>
+        <v>1986</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4694</v>
+        <v>4417</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4409</v>
+        <v>4571</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2124</v>
+        <v>2138</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8644</v>
+        <v>8839</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5357</v>
+        <v>5437</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3849</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="15">
@@ -1964,31 +1964,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11675</v>
+        <v>11503</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5141</v>
+        <v>5166</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8857</v>
+        <v>8880</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20817</v>
+        <v>19081</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17445</v>
+        <v>16949</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10074</v>
+        <v>9972</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>25505</v>
+        <v>25683</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20263</v>
+        <v>19440</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14704</v>
+        <v>14478</v>
       </c>
     </row>
     <row r="16">
@@ -2073,31 +2073,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2073</v>
+        <v>2035</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2406</v>
+        <v>2274</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4499</v>
+        <v>4635</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12174</v>
+        <v>11814</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7976</v>
+        <v>7724</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>12960</v>
+        <v>13447</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15538</v>
+        <v>15610</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12467</v>
+        <v>12409</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>19819</v>
+        <v>19726</v>
       </c>
     </row>
     <row r="19">
@@ -2108,31 +2108,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11325</v>
+        <v>11862</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14008</v>
+        <v>13457</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17391</v>
+        <v>17647</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32087</v>
+        <v>31592</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>22739</v>
+        <v>22444</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>26517</v>
+        <v>27507</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>37382</v>
+        <v>37350</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31255</v>
+        <v>31601</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>38942</v>
+        <v>38637</v>
       </c>
     </row>
     <row r="20">
@@ -2217,31 +2217,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3152</v>
+        <v>3127</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>13810</v>
+        <v>13788</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12533</v>
+        <v>12753</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7601</v>
+        <v>6834</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>14723</v>
+        <v>14718</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>17775</v>
+        <v>18629</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10755</v>
+        <v>10982</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>31206</v>
+        <v>31239</v>
       </c>
     </row>
     <row r="23">
@@ -2252,31 +2252,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13534</v>
+        <v>14411</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11144</v>
+        <v>11045</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>33070</v>
+        <v>31833</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>30636</v>
+        <v>29819</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>22458</v>
+        <v>23068</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>27708</v>
+        <v>28130</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>38140</v>
+        <v>38926</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>28245</v>
+        <v>27431</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>53293</v>
+        <v>53558</v>
       </c>
     </row>
     <row r="24">
@@ -2361,31 +2361,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5147</v>
+        <v>5873</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1997</v>
+        <v>2827</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12198</v>
+        <v>11955</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6645</v>
+        <v>6222</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>11395</v>
+        <v>11383</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>13916</v>
+        <v>15064</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>15162</v>
+        <v>14159</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>16179</v>
+        <v>15600</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>30017</v>
+        <v>29475</v>
       </c>
     </row>
     <row r="27">
@@ -2396,31 +2396,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>21400</v>
+        <v>21130</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12070</v>
+        <v>12874</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>25657</v>
+        <v>26092</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>19597</v>
+        <v>19600</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>28861</v>
+        <v>28298</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>27487</v>
+        <v>27836</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>35530</v>
+        <v>34843</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>36401</v>
+        <v>35997</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>48354</v>
+        <v>47947</v>
       </c>
     </row>
     <row r="28">
@@ -2505,31 +2505,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>6601</v>
+        <v>6138</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>15275</v>
+        <v>14799</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>5329</v>
+        <v>4433</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>7522</v>
+        <v>7394</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>13721</v>
+        <v>13563</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>9607</v>
+        <v>9870</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>16743</v>
+        <v>17084</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>32620</v>
+        <v>32121</v>
       </c>
     </row>
     <row r="31">
@@ -2540,31 +2540,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14477</v>
+        <v>13547</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>19657</v>
+        <v>19381</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>31120</v>
+        <v>30607</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>18487</v>
+        <v>18168</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>26773</v>
+        <v>26790</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>25683</v>
+        <v>25946</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>26907</v>
+        <v>25921</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>39445</v>
+        <v>40838</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>52248</v>
+        <v>52880</v>
       </c>
     </row>
     <row r="32">
@@ -2649,31 +2649,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>27619</v>
+        <v>27750</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>19942</v>
+        <v>20409</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>58964</v>
+        <v>60378</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>55584</v>
+        <v>55302</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>55028</v>
+        <v>55157</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>73122</v>
+        <v>72344</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>90900</v>
+        <v>91205</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>80781</v>
+        <v>82015</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>136971</v>
+        <v>139938</v>
       </c>
     </row>
     <row r="35">
@@ -2684,31 +2684,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>55431</v>
+        <v>53614</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>41177</v>
+        <v>41854</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>89690</v>
+        <v>91361</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>90904</v>
+        <v>91415</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>91385</v>
+        <v>90289</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>101369</v>
+        <v>101757</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>133959</v>
+        <v>134930</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>121736</v>
+        <v>123783</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>180038</v>
+        <v>182774</v>
       </c>
     </row>
     <row r="36">
